--- a/ProyecctoFinal_VR14/ValoresHélice.xlsx
+++ b/ProyecctoFinal_VR14/ValoresHélice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF900D-2A5D-42BD-8705-33D60FA7A93D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE4D69-5630-45CD-A077-34E94207511B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="615" windowWidth="18300" windowHeight="14625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15900" yWindow="420" windowWidth="15060" windowHeight="14625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="115">
   <si>
     <t>Vo (v)</t>
   </si>
@@ -68,39 +68,24 @@
     <t>1.00</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>1.01</t>
   </si>
   <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>1.02</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
     <t>PID AUT/MAN</t>
   </si>
   <si>
     <t>1.03</t>
   </si>
   <si>
-    <t>0.03</t>
-  </si>
-  <si>
     <t>PID RESET</t>
   </si>
   <si>
     <t>1.04</t>
   </si>
   <si>
-    <t>0.04</t>
-  </si>
-  <si>
     <t>PULSADORES</t>
   </si>
   <si>
@@ -173,21 +158,12 @@
     <t>PID</t>
   </si>
   <si>
-    <t>OUT Sensor</t>
-  </si>
-  <si>
-    <t>IN Actuador</t>
-  </si>
-  <si>
     <t>Ángulo de inicio</t>
   </si>
   <si>
     <t>Ángulo de soplado</t>
   </si>
   <si>
-    <t>OUT PID</t>
-  </si>
-  <si>
     <t>4x</t>
   </si>
   <si>
@@ -203,9 +179,6 @@
     <t>bSe_FT_Empujador_1</t>
   </si>
   <si>
-    <t>bSe_FC_Empijador_1</t>
-  </si>
-  <si>
     <t>bSe_FT_Fresadora</t>
   </si>
   <si>
@@ -224,30 +197,6 @@
     <t>2.01</t>
   </si>
   <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>2.03</t>
-  </si>
-  <si>
-    <t>2.04</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.01</t>
-  </si>
-  <si>
     <t>1.05</t>
   </si>
   <si>
@@ -257,39 +206,6 @@
     <t>1.07</t>
   </si>
   <si>
-    <t>3.02</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>3.06</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.02</t>
-  </si>
-  <si>
-    <t>4.03</t>
-  </si>
-  <si>
-    <t>4.04</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
     <t>rKp</t>
   </si>
   <si>
@@ -305,21 +221,9 @@
     <t>rReferencia</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
     <t>IgradosAguja</t>
   </si>
   <si>
-    <t>4.01</t>
-  </si>
-  <si>
-    <t>rActuador</t>
-  </si>
-  <si>
     <t>iPosInicioGrados</t>
   </si>
   <si>
@@ -360,6 +264,114 @@
   </si>
   <si>
     <t>1.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>bSe_FC_Empujador_1</t>
+  </si>
+  <si>
+    <t>wKp</t>
+  </si>
+  <si>
+    <t>wKi</t>
+  </si>
+  <si>
+    <t>wKd</t>
+  </si>
+  <si>
+    <t>vActuador=OUT_PID</t>
+  </si>
+  <si>
+    <t>vSensor</t>
+  </si>
+  <si>
+    <t>wReferencia</t>
   </si>
 </sst>
 </file>
@@ -496,7 +508,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,6 +568,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4266,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,10 +4304,12 @@
         <v>6</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="G3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -4308,7 +4325,7 @@
       <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="11"/>
@@ -4324,7 +4341,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>11</v>
@@ -4333,693 +4350,740 @@
         <v>12</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>25</v>
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="J5" s="9">
+        <v>101</v>
+      </c>
+      <c r="K5" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="J6" s="9">
+        <v>102</v>
+      </c>
+      <c r="K6" s="9">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>27</v>
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="J7" s="9">
+        <v>103</v>
+      </c>
+      <c r="K7" s="9">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="J8" s="9">
+        <v>104</v>
+      </c>
+      <c r="K8" s="9">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="J9" s="9">
+        <v>105</v>
+      </c>
+      <c r="K9" s="9">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="J10" s="9">
+        <v>106</v>
+      </c>
+      <c r="K10" s="9">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>32</v>
+        <v>57</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="J11" s="9">
+        <v>107</v>
+      </c>
+      <c r="K11" s="9">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="9">
+        <v>100</v>
+      </c>
+      <c r="K12" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="9">
+        <v>109</v>
+      </c>
+      <c r="K16" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="9">
+        <v>110</v>
+      </c>
+      <c r="K17" s="9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="9">
+        <v>111</v>
+      </c>
+      <c r="K18" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="9">
+        <v>112</v>
+      </c>
+      <c r="K19" s="9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="9">
+        <v>114</v>
+      </c>
+      <c r="K21" s="9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="9">
+        <v>115</v>
+      </c>
+      <c r="K22" s="9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="D23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="9">
+        <v>116</v>
+      </c>
+      <c r="K23" s="9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="9">
+        <v>117</v>
+      </c>
+      <c r="K24" s="9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="9">
+        <v>118</v>
+      </c>
+      <c r="K25" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="D26" s="18"/>
+      <c r="G26" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="9">
+        <v>89</v>
+      </c>
+      <c r="K26" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="G27" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J15" s="18"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="13" t="s">
+      <c r="I27" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="9">
-        <v>101</v>
-      </c>
-      <c r="E19" s="9">
-        <v>100</v>
-      </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="9">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="9">
-        <v>102</v>
-      </c>
-      <c r="E20" s="9">
-        <v>101</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" t="s">
-        <v>49</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="9">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="9">
+      <c r="J27" s="9">
+        <v>90</v>
+      </c>
+      <c r="K27" s="9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="9">
-        <v>103</v>
-      </c>
-      <c r="E21" s="9">
-        <v>102</v>
-      </c>
-      <c r="G21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" t="s">
-        <v>50</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="9">
-        <v>111</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="9">
-        <v>104</v>
-      </c>
-      <c r="E22" s="9">
-        <v>103</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="9">
-        <v>112</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="9">
-        <v>105</v>
-      </c>
-      <c r="E23" s="9">
-        <v>104</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="9">
-        <v>113</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="9">
-        <v>106</v>
-      </c>
-      <c r="E24" s="9">
-        <v>105</v>
-      </c>
-      <c r="G24" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="9">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="9">
-        <v>107</v>
-      </c>
-      <c r="E25" s="9">
-        <v>106</v>
-      </c>
-      <c r="G25" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" s="9">
-        <v>115</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="9">
-        <v>100</v>
-      </c>
-      <c r="E26" s="9">
-        <v>99</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M26" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="9">
-        <v>116</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="I28" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J28" s="9">
         <v>91</v>
       </c>
-      <c r="O27" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="9">
-        <v>117</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>77</v>
+      <c r="K28" s="9">
+        <v>92</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>78</v>
+      <c r="A29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="23">
+        <v>19</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="9">
+        <v>20</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="23">
+        <v>21</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="9">
+        <v>22</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="23">
+        <v>23</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="9">
+        <v>24</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="23">
+        <v>25</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="9">
+        <v>26</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="23">
+        <v>27</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="9">
+        <v>28</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="23">
+        <v>29</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
